--- a/各个学科听力.xlsx
+++ b/各个学科听力.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\最重要的事\托福\单词\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\最重要的事\托福\单词\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4134B60E-4E65-4795-8D8E-C1680C56FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD19F8B-EB5B-43C4-873F-C9278A4D5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="2858" windowWidth="7500" windowHeight="5999" tabRatio="904" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13710" yWindow="3803" windowWidth="6840" windowHeight="8632" tabRatio="904" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="感悟" sheetId="11" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="761">
   <si>
     <t>knack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2232,6 +2232,865 @@
   </si>
   <si>
     <t>舒适的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baroque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴洛克式的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patronage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持；赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单簧管；竖笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">profound </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度的；深切的；深远的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpsichord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有键竖琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击乐器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴拨；牙签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pluck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘；拔；扯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guitar pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">plectrum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉他拨子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>felt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 毡；毡制品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drumstick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鼓槌,鼓槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力学；（音乐中）的力度变化、力度强弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand-new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新的；崭新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coincide with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a larger proportion of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更大比例的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to some extent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某种程度上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recital </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtuoso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术大师、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音调；音色；语气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音调；音高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loudness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressiveness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>either...or </t>
+  </si>
+  <si>
+    <t>要么…要么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neither…nor…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既不…也不...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活的；实况转播的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短暂的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcendent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawing a parallel with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What you are saying is, I mean, …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兜帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tusk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长牙；獠牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratigraphy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地层学；地层情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩层；地层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charcoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chip off </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apart from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除…之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾斜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">axial </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beyond our scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方解石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quartz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花岗岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have an open spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有空位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（green的复数）绿叶蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女侍者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以不同的眼光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺便访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a different light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That way …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼罗河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inundation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹没；泛滥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>susidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Nile River</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Nile Valley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼罗河谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退；减弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显式；透露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sirius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狼星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强光；怒视；瞪眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heliacal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.C.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.D.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get out of step with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…步调不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>octopus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手感；质感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chromatophore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色素细胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exceptional </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优越的；独特的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fascinating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proteus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊海神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mythology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speckle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄上斑点；点缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per square millimeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每平方毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染；订阅；使缩短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影；放映机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使变平坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatten out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirt out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a cloud of 可名复/不可数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一群…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nestle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒适地坐定；偎依</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nestle up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依偎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象深刻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burdock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛蒡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coconut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook onto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2907,10 +3766,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CDE34D-67E3-4D91-8ED7-2F33FC5499C8}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3058,6 +3917,102 @@
       </c>
       <c r="D14" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>639</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>641</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C17" t="s">
+        <v>644</v>
+      </c>
+      <c r="D17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>648</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>652</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>655</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3132,10 +4087,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6701A5B8-36B5-4273-BD21-382A121784B4}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3369,6 +4324,39 @@
       </c>
       <c r="D21" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>629</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -3379,10 +4367,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24D0148-5C60-45CB-8BB3-FD80ED795433}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3575,7 +4563,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -3586,7 +4574,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>446</v>
       </c>
@@ -3597,7 +4585,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>448</v>
       </c>
@@ -3608,7 +4596,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>514</v>
       </c>
@@ -3619,7 +4607,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>516</v>
       </c>
@@ -3630,7 +4618,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>518</v>
       </c>
@@ -3641,7 +4629,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>520</v>
       </c>
@@ -3650,6 +4638,266 @@
       </c>
       <c r="D23" t="s">
         <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>712</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>714</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>716</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>720</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>721</v>
+      </c>
+      <c r="H28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>722</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>724</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>726</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>728</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D33" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>732</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>734</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>738</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>740</v>
+      </c>
+      <c r="D38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>742</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>744</v>
+      </c>
+      <c r="D40" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>745</v>
+      </c>
+      <c r="D41" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>747</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D43" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>751</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>753</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>755</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>759</v>
+      </c>
+      <c r="D47" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>757</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -3864,10 +5112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1089DAD5-EBD5-45D3-813B-812B69CAA367}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3943,6 +5191,25 @@
         <v>311</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>672</v>
+      </c>
+      <c r="D12" t="s">
+        <v>673</v>
+      </c>
+      <c r="E12" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3951,13 +5218,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E687BA3-03DC-4DC2-9512-EF8EF403454C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -4222,6 +5493,9 @@
       <c r="A27" t="s">
         <v>510</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
@@ -4233,11 +5507,113 @@
       <c r="A28" t="s">
         <v>512</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>600</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>602</v>
+      </c>
+      <c r="D30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>604</v>
+      </c>
+      <c r="D31" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>608</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>609</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -4248,10 +5624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA932550-E97B-4123-8065-BDBBEAEB3670}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A31" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4572,6 +5948,74 @@
       </c>
       <c r="D28" t="s">
         <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>660</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>662</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>664</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>665</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>671</v>
+      </c>
+      <c r="D34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>669</v>
+      </c>
+      <c r="D35" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -4595,10 +6039,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4785,6 +6229,365 @@
       </c>
       <c r="D17" t="s">
         <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>562</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>564</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>567</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>572</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>574</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>578</v>
+      </c>
+      <c r="D34" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>580</v>
+      </c>
+      <c r="D35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>582</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>584</v>
+      </c>
+      <c r="D37" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>590</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>592</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>596</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>598</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>620</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>622</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>623</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>625</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>633</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>635</v>
+      </c>
+      <c r="D50" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>637</v>
+      </c>
+      <c r="D51" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5342,10 +7145,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68166A7-D694-4448-BC18-C30215E141F7}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5691,6 +7494,209 @@
         <v>402</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>682</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>677</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>679</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>680</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>685</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>687</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>689</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>691</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>693</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>697</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>699</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>701</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" t="s">
+        <v>707</v>
+      </c>
+      <c r="D47" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C48" t="s">
+        <v>707</v>
+      </c>
+      <c r="D48" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>708</v>
+      </c>
+      <c r="D49" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>710</v>
+      </c>
+      <c r="D50" t="s">
+        <v>711</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/各个学科听力.xlsx
+++ b/各个学科听力.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\最重要的事\托福\单词\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD19F8B-EB5B-43C4-873F-C9278A4D5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2470EA-9A52-499A-B719-07BCDFD5AEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="3803" windowWidth="6840" windowHeight="8632" tabRatio="904" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="904" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="感悟" sheetId="11" r:id="rId1"/>
@@ -4370,7 +4370,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
